--- a/data/output/FV2504_FV2410/ORDERS/17202.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17202.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="193">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="193">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -686,6 +686,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U70" totalsRowShown="0">
+  <autoFilter ref="A1:U70"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -975,7 +1005,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4330,5 +4363,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/ORDERS/17202.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17202.xlsx
@@ -1353,7 +1353,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2065,7 +2065,7 @@
         <v>177</v>
       </c>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2269,7 +2269,7 @@
         <v>178</v>
       </c>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N20" s="2"/>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N24" s="2"/>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -2865,7 +2865,7 @@
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N32" s="2" t="s">
@@ -3185,7 +3185,7 @@
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -3367,52 +3367,52 @@
       <c r="V41" s="5"/>
     </row>
     <row r="42" spans="1:22">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E42" s="5"/>
+      <c r="E42" s="2"/>
       <c r="F42" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5" t="s">
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="K42" s="5"/>
+      <c r="K42" s="2"/>
       <c r="L42" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="M42" s="5" t="s">
+      <c r="M42" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N42" s="5" t="s">
+      <c r="N42" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O42" s="5" t="s">
+      <c r="O42" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P42" s="5"/>
+      <c r="P42" s="2"/>
       <c r="Q42" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5" t="s">
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="V42" s="5"/>
+      <c r="V42" s="2"/>
     </row>
     <row r="43" spans="1:22">
       <c r="A43" s="5" t="s">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -4091,7 +4091,7 @@
         <v>180</v>
       </c>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -4241,7 +4241,7 @@
         <v>178</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -4445,7 +4445,7 @@
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -4631,48 +4631,48 @@
       </c>
     </row>
     <row r="66" spans="1:22">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5" t="s">
+      <c r="C66" s="2"/>
+      <c r="D66" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E66" s="5"/>
+      <c r="E66" s="2"/>
       <c r="F66" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5" t="s">
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="K66" s="5"/>
+      <c r="K66" s="2"/>
       <c r="L66" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="M66" s="5" t="s">
+      <c r="M66" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N66" s="5"/>
-      <c r="O66" s="5" t="s">
+      <c r="N66" s="2"/>
+      <c r="O66" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="P66" s="5"/>
+      <c r="P66" s="2"/>
       <c r="Q66" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="R66" s="5"/>
-      <c r="S66" s="5"/>
-      <c r="T66" s="5"/>
-      <c r="U66" s="5" t="s">
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
+      <c r="U66" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="V66" s="5"/>
+      <c r="V66" s="2"/>
     </row>
     <row r="67" spans="1:22">
       <c r="A67" s="5" t="s">
@@ -4731,48 +4731,48 @@
       <c r="V67" s="5"/>
     </row>
     <row r="68" spans="1:22">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5" t="s">
+      <c r="C68" s="2"/>
+      <c r="D68" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E68" s="5"/>
+      <c r="E68" s="2"/>
       <c r="F68" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5" t="s">
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="K68" s="5"/>
+      <c r="K68" s="2"/>
       <c r="L68" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="M68" s="5" t="s">
+      <c r="M68" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N68" s="5"/>
-      <c r="O68" s="5" t="s">
+      <c r="N68" s="2"/>
+      <c r="O68" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="P68" s="5"/>
+      <c r="P68" s="2"/>
       <c r="Q68" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="R68" s="5"/>
-      <c r="S68" s="5"/>
-      <c r="T68" s="5"/>
-      <c r="U68" s="5" t="s">
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="V68" s="5"/>
+      <c r="V68" s="2"/>
     </row>
     <row r="69" spans="1:22">
       <c r="A69" s="5" t="s">
